--- a/special-topics/data-handling/random-data/lottery-simulation-after.xlsx
+++ b/special-topics/data-handling/random-data/lottery-simulation-after.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectLocal\gdpt-2018\special-topics\data-handling\random-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C90A53-F805-4FA2-8283-C6CF67A594D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E246E38-6A64-4284-9033-8FEC482FB20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
-  <si>
-    <t>Thử thách: Chỉnh sửa công thức sao cho xác suất mặt ngửa là 60% và mặt sấp" là 40%.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>Họ</t>
   </si>
@@ -255,6 +252,18 @@
   </si>
   <si>
     <t>Mời bạn có tên sau đây lên bảng kiểm tra bài cũ:</t>
+  </si>
+  <si>
+    <t>Thử thách: Bổ sung bảng tính sao cho gọi được ngẫu nhiên một số bạn từ các nhóm khác nhau.</t>
+  </si>
+  <si>
+    <t>Nhóm</t>
+  </si>
+  <si>
+    <t>Từ số</t>
+  </si>
+  <si>
+    <t>Đến số</t>
   </si>
 </sst>
 </file>
@@ -848,7 +857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -865,28 +874,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -894,10 +903,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D5" s="1" t="str">
         <f>B5&amp;" "&amp;C5</f>
@@ -905,22 +914,22 @@
       </c>
       <c r="G5" s="1">
         <f ca="1">RANDBETWEEN(1,37)</f>
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1" t="str">
-        <f>VLOOKUP(A5,$A$5:$D$41,4,0)</f>
-        <v>Hoàng Nguyệt Anh</v>
+        <f ca="1">VLOOKUP(G5,$A$5:$D$41,4,0)</f>
+        <v>Triệu Vân</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D6" s="1" t="str">
         <f t="shared" ref="D6:D41" si="0">B6&amp;" "&amp;C6</f>
@@ -932,10 +941,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -947,10 +956,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="D8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -962,10 +971,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -977,10 +986,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -992,10 +1001,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1007,10 +1016,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1022,10 +1031,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1037,10 +1046,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1052,10 +1061,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1067,10 +1076,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="D16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1082,10 +1091,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1097,10 +1106,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1112,10 +1121,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1127,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1142,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1157,10 +1166,10 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1172,10 +1181,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1187,10 +1196,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1202,10 +1211,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1216,11 +1225,11 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1232,10 +1241,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1247,10 +1256,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1261,11 +1270,11 @@
       <c r="A29" s="1">
         <v>25</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1277,10 +1286,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1292,10 +1301,10 @@
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1" t="str">
         <f t="shared" si="0"/>
@@ -1307,154 +1316,247 @@
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Điêu Thuyền</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Lục Tốn</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hoàng Trung</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="D35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Lỗ Túc</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Tuân Úc</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Hạ Hầu Uyên</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Triệu Vân</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D39" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Điển Vi</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D40" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Quan Vũ</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Tư Mã Ý</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1">
+        <f ca="1">RANDBETWEEN(E46,F46)</f>
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="str">
+        <f ca="1">VLOOKUP(G46,$A$5:$D$41,4,0)</f>
+        <v>Hoàng Nguyệt Anh</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1">
+        <v>19</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ref="G47:G49" ca="1" si="1">RANDBETWEEN(E47,F47)</f>
+        <v>17</v>
+      </c>
+      <c r="H47" s="1" t="str">
+        <f t="shared" ref="H47:H49" ca="1" si="2">VLOOKUP(G47,$A$5:$D$41,4,0)</f>
+        <v>Lã Mông</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1">
+        <v>29</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Điêu Thuyền</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D49" s="1">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
         <v>30</v>
       </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tư Mã Ý</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>0</v>
+      <c r="F49" s="1">
+        <v>37</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="H49" s="1" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Tuân Úc</v>
       </c>
     </row>
   </sheetData>

--- a/special-topics/data-handling/random-data/lottery-simulation-after.xlsx
+++ b/special-topics/data-handling/random-data/lottery-simulation-after.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectLocal\gdpt-2018\special-topics\data-handling\random-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E246E38-6A64-4284-9033-8FEC482FB20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188F6197-E23C-4D14-819E-611BD0057CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="2244" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Họ</t>
   </si>
@@ -248,15 +248,9 @@
     <t>Xổ số</t>
   </si>
   <si>
-    <t>Yêu cầu: Mô phỏng trò chơi xổ số để gọi một bạn lên bảng kiểm tra bài cũ</t>
-  </si>
-  <si>
     <t>Mời bạn có tên sau đây lên bảng kiểm tra bài cũ:</t>
   </si>
   <si>
-    <t>Thử thách: Bổ sung bảng tính sao cho gọi được ngẫu nhiên một số bạn từ các nhóm khác nhau.</t>
-  </si>
-  <si>
     <t>Nhóm</t>
   </si>
   <si>
@@ -264,13 +258,28 @@
   </si>
   <si>
     <t>Đến số</t>
+  </si>
+  <si>
+    <t>Dữ liệu ngẫu nhiên</t>
+  </si>
+  <si>
+    <t>Bài 1:</t>
+  </si>
+  <si>
+    <t>Mô phỏng trò chơi xổ số để gọi một bạn lên bảng kiểm tra bài cũ.</t>
+  </si>
+  <si>
+    <t>Bài 2:</t>
+  </si>
+  <si>
+    <t>Bổ sung bảng tính sao cho gọi được ngẫu nhiên một số bạn từ các nhóm khác nhau.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,16 +311,35 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF107C41"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -319,16 +347,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,13 +423,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>418042</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>89960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -857,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -873,695 +939,717 @@
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="7" spans="1:8" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>B7&amp;" "&amp;C7</f>
+        <v>Hoàng Nguyệt Anh</v>
+      </c>
+      <c r="G7" s="8">
+        <f ca="1">RANDBETWEEN(1,37)</f>
+        <v>26</v>
+      </c>
+      <c r="H7" s="8" t="str">
+        <f ca="1">VLOOKUP(G7,$A$7:$D$43,4,0)</f>
+        <v>Lưu Thiện</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f t="shared" ref="D8:D43" si="0">B8&amp;" "&amp;C8</f>
+        <v>Lưu Bị</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Hoàng Cái</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Hứa Chử</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Ngụy Diên</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Lý Điển</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Hạ Hầu Đôn</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Chu Du</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Khương Duy</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Quách Gia</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Chung Hội</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tôn Thượng Hương</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
+        <v>13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tôn Kiên</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
+        <v>14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Đại Kiều</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tiểu Kiều</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Gia Cát Lượng</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Lã Mông</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Đặng Ngải</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tào Phi</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Trương Phi</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Trình Phổ</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tôn Quyền</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
+        <v>23</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tôn Sách</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
+        <v>24</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Mã Siêu</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
+        <v>25</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tào Tháo</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Lưu Thiện</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
+        <v>27</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Bàng Thống</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
+        <v>28</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Điêu Thuyền</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
+        <v>29</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Lục Tốn</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Hoàng Trung</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Lỗ Túc</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
+        <v>32</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tuân Úc</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
+        <v>33</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Hạ Hầu Uyên</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
+        <v>34</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Triệu Vân</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
+        <v>35</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Điển Vi</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
+        <v>36</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Quan Vũ</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
+        <v>37</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Tư Mã Ý</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D50" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
+      <c r="E50" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="str">
-        <f>B5&amp;" "&amp;C5</f>
-        <v>Hoàng Nguyệt Anh</v>
-      </c>
-      <c r="G5" s="1">
-        <f ca="1">RANDBETWEEN(1,37)</f>
-        <v>34</v>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f ca="1">VLOOKUP(G5,$A$5:$D$41,4,0)</f>
-        <v>Triệu Vân</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
+      <c r="F50" s="7">
+        <v>9</v>
+      </c>
+      <c r="G50" s="7">
+        <f ca="1">RANDBETWEEN(E50,F50)</f>
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f t="shared" ref="D6:D41" si="0">B6&amp;" "&amp;C6</f>
+      <c r="H50" s="7" t="str">
+        <f ca="1">VLOOKUP(G50,$A$7:$D$43,4,0)</f>
         <v>Lưu Bị</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
+    <row r="51" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D51" s="7">
+        <v>2</v>
+      </c>
+      <c r="E51" s="7">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7">
+        <v>19</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" ref="G51:G53" ca="1" si="1">RANDBETWEEN(E51,F51)</f>
+        <v>19</v>
+      </c>
+      <c r="H51" s="7" t="str">
+        <f t="shared" ref="H51:H53" ca="1" si="2">VLOOKUP(G51,$A$7:$D$43,4,0)</f>
+        <v>Tào Phi</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D52" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Hoàng Cái</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
+      <c r="E52" s="7">
+        <v>20</v>
+      </c>
+      <c r="F52" s="7">
+        <v>29</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H52" s="7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Mã Siêu</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D53" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Hứa Chử</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Ngụy Diên</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Lý Điển</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Hạ Hầu Đôn</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Chu Du</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Khương Duy</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Quách Gia</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>11</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="E53" s="7">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Chung Hội</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>12</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tôn Thượng Hương</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tôn Kiên</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>14</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Đại Kiều</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>15</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tiểu Kiều</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>16</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Gia Cát Lượng</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Lã Mông</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>18</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="F53" s="7">
+        <v>37</v>
+      </c>
+      <c r="G53" s="7">
+        <f t="shared" ca="1" si="1"/>
         <v>33</v>
       </c>
-      <c r="D22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Đặng Ngải</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tào Phi</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>20</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Trương Phi</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>21</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Trình Phổ</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tôn Quyền</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tôn Sách</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Mã Siêu</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tào Tháo</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Lưu Thiện</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>27</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Bàng Thống</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>28</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Điêu Thuyền</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Lục Tốn</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>30</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Hoàng Trung</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>31</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Lỗ Túc</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>32</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tuân Úc</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>33</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="1" t="str">
-        <f t="shared" si="0"/>
+      <c r="H53" s="7" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>Hạ Hầu Uyên</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Triệu Vân</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>35</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Điển Vi</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>36</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Quan Vũ</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Tư Mã Ý</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D45" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>9</v>
-      </c>
-      <c r="G46" s="1">
-        <f ca="1">RANDBETWEEN(E46,F46)</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="1" t="str">
-        <f ca="1">VLOOKUP(G46,$A$5:$D$41,4,0)</f>
-        <v>Hoàng Nguyệt Anh</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D47" s="1">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1">
-        <v>10</v>
-      </c>
-      <c r="F47" s="1">
-        <v>19</v>
-      </c>
-      <c r="G47" s="1">
-        <f t="shared" ref="G47:G49" ca="1" si="1">RANDBETWEEN(E47,F47)</f>
-        <v>17</v>
-      </c>
-      <c r="H47" s="1" t="str">
-        <f t="shared" ref="H47:H49" ca="1" si="2">VLOOKUP(G47,$A$5:$D$41,4,0)</f>
-        <v>Lã Mông</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D48" s="1">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1">
-        <v>20</v>
-      </c>
-      <c r="F48" s="1">
-        <v>29</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="H48" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Điêu Thuyền</v>
-      </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
-      <c r="D49" s="1">
-        <v>4</v>
-      </c>
-      <c r="E49" s="1">
-        <v>30</v>
-      </c>
-      <c r="F49" s="1">
-        <v>37</v>
-      </c>
-      <c r="G49" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="H49" s="1" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Tuân Úc</v>
-      </c>
-    </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="n/TDgtqEBOjHCXWdOkkN0JKEbLW4fBPPC0lpvsslAlMyzalAFz1smg5+St2EGtafcg07hBYVtqW2tfx1zmQE3w==" saltValue="Dq5NgJWeSDlSxnA+eee9jQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>